--- a/Docs/Übersicht Buttons.xlsx
+++ b/Docs/Übersicht Buttons.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drachen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\browsergame\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Anmeldung" sheetId="1" r:id="rId1"/>
+    <sheet name="Im Spiel" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Im Spiel'!$A$1:$H$47</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="111">
   <si>
     <t>Button</t>
   </si>
@@ -32,9 +36,6 @@
     <t>Anmelden</t>
   </si>
   <si>
-    <t>Verwendung</t>
-  </si>
-  <si>
     <t>Neuer Account</t>
   </si>
   <si>
@@ -74,15 +75,9 @@
     <t>Ja (Löschen)</t>
   </si>
   <si>
-    <t>Buttontyp / *Bild</t>
-  </si>
-  <si>
     <t>*Spielerbild</t>
   </si>
   <si>
-    <t>Minimalistisch</t>
-  </si>
-  <si>
     <t>Adminbereich</t>
   </si>
   <si>
@@ -101,30 +96,12 @@
     <t>Luftdrache</t>
   </si>
   <si>
-    <t>*./Bilder/Erdei_klein.png</t>
-  </si>
-  <si>
-    <t>*./Bilder/Wasserei_klein.png</t>
-  </si>
-  <si>
-    <t>*./Bilder/Feuerei_klein.png</t>
-  </si>
-  <si>
-    <t>*./Bilder/Luftei_klein.png</t>
-  </si>
-  <si>
     <t>Karmana</t>
   </si>
   <si>
     <t>Koban</t>
   </si>
   <si>
-    <t>*./Platzhalter_gebiete/Klein/dschungel_klein.jpg</t>
-  </si>
-  <si>
-    <t>*./Platzhalter_gebiete/Klein/kristallhoehle_klein.jpg</t>
-  </si>
-  <si>
     <t>Spieler erstellen</t>
   </si>
   <si>
@@ -134,34 +111,256 @@
     <t>Ormanko</t>
   </si>
   <si>
-    <t>*./Platzhalter_gebiete/Klein/eissee_klein.jpg</t>
-  </si>
-  <si>
-    <t>*./Platzhalter_gebiete/Klein/sumpf_klein.jpg</t>
-  </si>
-  <si>
     <t>Rapano</t>
   </si>
   <si>
     <t>Aktor</t>
   </si>
   <si>
-    <t>*./Platzhalter_gebiete/Klein/vulkan_klein.jpg</t>
-  </si>
-  <si>
-    <t>*./Platzhalter_gebiete/Klein/wueste_klein.jpg</t>
-  </si>
-  <si>
     <t>Rastagy</t>
   </si>
   <si>
-    <t>*./Platzhalter_gebiete/Klein/klippe_klein.jpg</t>
-  </si>
-  <si>
-    <t>*./Platzhalter_gebiete/Klein/mammutbaum_klein.jpg</t>
-  </si>
-  <si>
     <t>Everleen</t>
+  </si>
+  <si>
+    <t>X (Löschen)</t>
+  </si>
+  <si>
+    <t>Nein (Löschen)</t>
+  </si>
+  <si>
+    <t>Zurück zur Spielerauswahl</t>
+  </si>
+  <si>
+    <t>Starte Musik</t>
+  </si>
+  <si>
+    <t>Einstellungen</t>
+  </si>
+  <si>
+    <t>Charakterdaten</t>
+  </si>
+  <si>
+    <t>Statistik</t>
+  </si>
+  <si>
+    <t>Tagebuch</t>
+  </si>
+  <si>
+    <t>Karte</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>Buttontyp</t>
+  </si>
+  <si>
+    <t>Standardbutton mit Bild</t>
+  </si>
+  <si>
+    <t>./Bilder/Erdei_klein.png</t>
+  </si>
+  <si>
+    <t>./Bilder/Wasserei_klein.png</t>
+  </si>
+  <si>
+    <t>./Bilder/Feuerei_klein.png</t>
+  </si>
+  <si>
+    <t>./Bilder/Luftei_klein.png</t>
+  </si>
+  <si>
+    <t>./Platzhalter_gebiete/Klein/dschungel_klein.jpg</t>
+  </si>
+  <si>
+    <t>./Platzhalter_gebiete/Klein/kristallhoehle_klein.jpg</t>
+  </si>
+  <si>
+    <t>./Platzhalter_gebiete/Klein/eissee_klein.jpg</t>
+  </si>
+  <si>
+    <t>./Platzhalter_gebiete/Klein/sumpf_klein.jpg</t>
+  </si>
+  <si>
+    <t>./Platzhalter_gebiete/Klein/vulkan_klein.jpg</t>
+  </si>
+  <si>
+    <t>./Platzhalter_gebiete/Klein/wueste_klein.jpg</t>
+  </si>
+  <si>
+    <t>./Platzhalter_gebiete/Klein/mammutbaum_klein.jpg</t>
+  </si>
+  <si>
+    <t>./Platzhalter_gebiete/Klein/klippe_klein.jpg</t>
+  </si>
+  <si>
+    <t>Inputbutton mit Bild</t>
+  </si>
+  <si>
+    <t>././Bilder/Tagebuch.png</t>
+  </si>
+  <si>
+    <t>Verwendung alt</t>
+  </si>
+  <si>
+    <t>Verwendung neu</t>
+  </si>
+  <si>
+    <t>Ausruhen</t>
+  </si>
+  <si>
+    <t>././Bilder/weltkarte.png</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>././Bilder/ausruhen.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speichern </t>
+  </si>
+  <si>
+    <t>zurück</t>
+  </si>
+  <si>
+    <t>Handwerk</t>
+  </si>
+  <si>
+    <t>././Bilder/Handwerk.png</t>
+  </si>
+  <si>
+    <t>Gepäck betrachten</t>
+  </si>
+  <si>
+    <t>././Bilder/gepaeckbutton.png</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>Anlegen</t>
+  </si>
+  <si>
+    <t>Ablegen</t>
+  </si>
+  <si>
+    <t>Gebiet erkunden</t>
+  </si>
+  <si>
+    <t>././Bilder/erkundenbutton.png</t>
+  </si>
+  <si>
+    <t>Normale Erkundung</t>
+  </si>
+  <si>
+    <t>Erkundung mit Fokus Jagd</t>
+  </si>
+  <si>
+    <t>Erkundung mit Fokus Sammeln</t>
+  </si>
+  <si>
+    <t>Interessantes vor Ort</t>
+  </si>
+  <si>
+    <t>Fliegen</t>
+  </si>
+  <si>
+    <t>././Bilder/flugbutton.png</t>
+  </si>
+  <si>
+    <t>Drachenkampf</t>
+  </si>
+  <si>
+    <t>././Bilder/drachenkampf.png</t>
+  </si>
+  <si>
+    <t>Aktion beenden</t>
+  </si>
+  <si>
+    <t>Kampf beenden</t>
+  </si>
+  <si>
+    <t>weiter</t>
+  </si>
+  <si>
+    <t>Timer-Button</t>
+  </si>
+  <si>
+    <t>Aktionen</t>
+  </si>
+  <si>
+    <t>Pflanzen sammeln</t>
+  </si>
+  <si>
+    <t>Jagen &amp; angreifen</t>
+  </si>
+  <si>
+    <t>Gefundene Dinge ignorieren</t>
+  </si>
+  <si>
+    <t>././Bilder/jagenbutton.png</t>
+  </si>
+  <si>
+    <t>././Bilder/pflanzenbutton.png</t>
+  </si>
+  <si>
+    <t>ansprechen</t>
+  </si>
+  <si>
+    <t>Dialog</t>
+  </si>
+  <si>
+    <t>Elemente beschwören</t>
+  </si>
+  <si>
+    <t>././Bilder/elementbutton.png</t>
+  </si>
+  <si>
+    <t>Elemente der Luft</t>
+  </si>
+  <si>
+    <t>Elemente des Wassers</t>
+  </si>
+  <si>
+    <t>Elemente des Feuers</t>
+  </si>
+  <si>
+    <t>././Bilder/luftelemente.png</t>
+  </si>
+  <si>
+    <t>././Bilder/wasserelemente.png</t>
+  </si>
+  <si>
+    <t>././Bilder/feuerelemente.png</t>
+  </si>
+  <si>
+    <t>Elemente der Erde</t>
+  </si>
+  <si>
+    <t>././Bilder/erdelemente.png</t>
+  </si>
+  <si>
+    <t>././Bilder/standardangriffe.png</t>
+  </si>
+  <si>
+    <t>Standardangriffe</t>
+  </si>
+  <si>
+    <t>Ebene neu</t>
+  </si>
+  <si>
+    <t>Menü</t>
+  </si>
+  <si>
+    <t>Oberfläche</t>
+  </si>
+  <si>
+    <t>Position 1</t>
+  </si>
+  <si>
+    <t>Position 2</t>
   </si>
 </sst>
 </file>
@@ -185,15 +384,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,19 +436,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -507,296 +765,1430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>3</v>
+      </c>
+      <c r="H11" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="20">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>3</v>
+      </c>
+      <c r="H12" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>5</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>6</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>7</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12">
+        <v>7</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12">
+        <v>7</v>
+      </c>
+      <c r="H18" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>7</v>
+      </c>
+      <c r="H19" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="11">
+        <v>2</v>
+      </c>
+      <c r="G20" s="12">
+        <v>7</v>
+      </c>
+      <c r="H20" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2</v>
+      </c>
+      <c r="G21" s="14">
+        <v>7</v>
+      </c>
+      <c r="H21" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
+        <v>8</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
+        <v>9</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
+        <v>10</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="10">
+        <v>3</v>
+      </c>
+      <c r="G25" s="12">
+        <v>10</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="20">
+        <v>3</v>
+      </c>
+      <c r="G26" s="14">
+        <v>10</v>
+      </c>
+      <c r="H26" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H47"/>
+  <sortState ref="A2:H47">
+    <sortCondition ref="G2:G47"/>
+    <sortCondition ref="H2:H47"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Übersicht Buttons.xlsx
+++ b/Docs/Übersicht Buttons.xlsx
@@ -198,9 +198,6 @@
     <t>Inputbutton mit Bild</t>
   </si>
   <si>
-    <t>././Bilder/Tagebuch.png</t>
-  </si>
-  <si>
     <t>Verwendung alt</t>
   </si>
   <si>
@@ -210,15 +207,9 @@
     <t>Ausruhen</t>
   </si>
   <si>
-    <t>././Bilder/weltkarte.png</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>././Bilder/ausruhen.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">Speichern </t>
   </si>
   <si>
@@ -228,15 +219,9 @@
     <t>Handwerk</t>
   </si>
   <si>
-    <t>././Bilder/Handwerk.png</t>
-  </si>
-  <si>
     <t>Gepäck betrachten</t>
   </si>
   <si>
-    <t>././Bilder/gepaeckbutton.png</t>
-  </si>
-  <si>
     <t>Essen</t>
   </si>
   <si>
@@ -249,9 +234,6 @@
     <t>Gebiet erkunden</t>
   </si>
   <si>
-    <t>././Bilder/erkundenbutton.png</t>
-  </si>
-  <si>
     <t>Normale Erkundung</t>
   </si>
   <si>
@@ -267,15 +249,9 @@
     <t>Fliegen</t>
   </si>
   <si>
-    <t>././Bilder/flugbutton.png</t>
-  </si>
-  <si>
     <t>Drachenkampf</t>
   </si>
   <si>
-    <t>././Bilder/drachenkampf.png</t>
-  </si>
-  <si>
     <t>Aktion beenden</t>
   </si>
   <si>
@@ -300,12 +276,6 @@
     <t>Gefundene Dinge ignorieren</t>
   </si>
   <si>
-    <t>././Bilder/jagenbutton.png</t>
-  </si>
-  <si>
-    <t>././Bilder/pflanzenbutton.png</t>
-  </si>
-  <si>
     <t>ansprechen</t>
   </si>
   <si>
@@ -315,9 +285,6 @@
     <t>Elemente beschwören</t>
   </si>
   <si>
-    <t>././Bilder/elementbutton.png</t>
-  </si>
-  <si>
     <t>Elemente der Luft</t>
   </si>
   <si>
@@ -327,24 +294,9 @@
     <t>Elemente des Feuers</t>
   </si>
   <si>
-    <t>././Bilder/luftelemente.png</t>
-  </si>
-  <si>
-    <t>././Bilder/wasserelemente.png</t>
-  </si>
-  <si>
-    <t>././Bilder/feuerelemente.png</t>
-  </si>
-  <si>
     <t>Elemente der Erde</t>
   </si>
   <si>
-    <t>././Bilder/erdelemente.png</t>
-  </si>
-  <si>
-    <t>././Bilder/standardangriffe.png</t>
-  </si>
-  <si>
     <t>Standardangriffe</t>
   </si>
   <si>
@@ -361,6 +313,54 @@
   </si>
   <si>
     <t>Position 2</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/weltkarte.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/drachenkampf.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/ausruhen.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/standardangriffe.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/gegend_erkunden.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/gepaeck_betrachten.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/elemente_beschwoeren.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/elemente_der_erde.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/elemente_des_wassers.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/elemente_des_feuers.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/elemente_der_luft.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/fliegen.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/handwerk.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/tagebuch.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/jagen_angreifen.png</t>
+  </si>
+  <si>
+    <t>././Bilder/Buttons/pflanzen_sammeln.png</t>
   </si>
 </sst>
 </file>
@@ -480,16 +480,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -790,10 +781,10 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,13 +1129,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -1161,34 +1154,34 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
@@ -1209,10 +1202,10 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -1233,10 +1226,10 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -1260,7 +1253,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -1281,10 +1274,10 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F6" s="13">
         <v>2</v>
@@ -1304,13 +1297,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
@@ -1324,19 +1317,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1350,17 +1343,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F9" s="10">
         <v>3</v>
@@ -1374,17 +1367,17 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F10" s="10">
         <v>3</v>
@@ -1398,17 +1391,17 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F11" s="10">
         <v>3</v>
@@ -1422,17 +1415,17 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F12" s="20">
         <v>3</v>
@@ -1446,19 +1439,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F13" s="19">
         <v>1</v>
@@ -1472,19 +1465,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
@@ -1498,19 +1491,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F15" s="21">
         <v>1</v>
@@ -1524,19 +1517,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F16" s="11">
         <v>1</v>
@@ -1550,19 +1543,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F17" s="11">
         <v>2</v>
@@ -1576,19 +1569,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F18" s="11">
         <v>2</v>
@@ -1602,19 +1595,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F19" s="11">
         <v>2</v>
@@ -1628,19 +1621,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F20" s="11">
         <v>2</v>
@@ -1654,19 +1647,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F21" s="19">
         <v>2</v>
@@ -1680,19 +1673,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F22" s="19">
         <v>1</v>
@@ -1706,16 +1699,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
@@ -1736,13 +1729,13 @@
         <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F24" s="11">
         <v>1</v>
@@ -1804,14 +1797,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>36</v>
@@ -1822,14 +1815,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>35</v>
@@ -1840,17 +1833,17 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="12"/>
@@ -1858,19 +1851,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
@@ -1878,19 +1871,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
@@ -1898,17 +1891,17 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
@@ -1916,19 +1909,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
@@ -1936,17 +1929,17 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
@@ -1954,17 +1947,17 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
@@ -1972,17 +1965,17 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
@@ -1990,17 +1983,17 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
@@ -2008,17 +2001,17 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
@@ -2026,17 +2019,17 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
@@ -2044,7 +2037,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -2060,17 +2053,17 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
@@ -2078,17 +2071,17 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
@@ -2096,17 +2089,17 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
@@ -2114,17 +2107,17 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
@@ -2132,17 +2125,17 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
@@ -2150,17 +2143,17 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
@@ -2168,7 +2161,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
